--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625614</v>
+        <v>399383.5293367549</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347747</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815497</v>
+        <v>8673692.685730744</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.3420634549345</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="4">
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474364</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13.47835778729046</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>123.0172992876057</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V5" t="n">
-        <v>146.8461210887087</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.8461210887087</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.8461210887087</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>34.92041296071469</v>
       </c>
       <c r="T6" t="n">
-        <v>146.8461210887087</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>129.3420634549345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.41405905276482</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="9">
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>29.00874781031932</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
         <v>187.5255871663199</v>
@@ -1277,10 +1277,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>149.7933161434361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>52.21594625443431</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>16.73455954182738</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.68942351146712</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.91073356940717</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>186.6141597285337</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>71.3419195941036</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>105.3804150401596</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.3691750088708</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>63.73239777127406</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>237.1335233812154</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>238.1138357058009</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>42.76735088622844</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>46.79891397838848</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>202.1599651915517</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>35.21134837541749</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>106.3489655915249</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.28185552386356</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>173.2989701645109</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>267.3172025050096</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>121.1745395272864</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.48523805799947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>237.1335233812154</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>74.69219553392834</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>88.58584547962775</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>127.5532942524956</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>124.5263082584371</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>109.0294308692048</v>
+        <v>108.0657126843808</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>50.04052206184446</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>120.6088074159623</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>195.2768636342815</v>
+        <v>118.8376584678378</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>91.61745183476829</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>49.87303154284881</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>161.2026687524962</v>
+        <v>194.7787730209281</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047992061</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>189.2133623690033</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>162.0606109397687</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>188.2196394312102</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>238.7809396517848</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U46" t="n">
-        <v>160.7365361851526</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439.0550691137147</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C2" t="n">
-        <v>439.0550691137147</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D2" t="n">
-        <v>290.7256538725949</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>142.396238631475</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>142.396238631475</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>142.396238631475</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779182994</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066255</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588561</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y2" t="n">
-        <v>587.3844843548345</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616817</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415667</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>247.5338027825023</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>392.9114626603238</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408226</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>456.7359354104562</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>308.4065201693364</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U3" t="n">
-        <v>308.4065201693364</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V3" t="n">
-        <v>308.4065201693364</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W3" t="n">
-        <v>160.0771049282165</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X3" t="n">
-        <v>11.74768968709669</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543243</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510274</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665712</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>25.3621925025416</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.7256538725949</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="C5" t="n">
-        <v>290.7256538725949</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="D5" t="n">
-        <v>290.7256538725949</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E5" t="n">
-        <v>166.465755602286</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="F5" t="n">
-        <v>18.13634036116613</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="G5" t="n">
-        <v>18.13634036116613</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>18.13634036116613</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>18.13634036116613</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>11.7476896870967</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183023</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066257</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588562</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735308</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548347</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548347</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548347</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548347</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548347</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3844843548347</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V5" t="n">
-        <v>439.0550691137148</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="W5" t="n">
-        <v>439.0550691137148</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X5" t="n">
-        <v>439.0550691137148</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="Y5" t="n">
-        <v>439.0550691137148</v>
+        <v>181.8429936158252</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.0771049282166</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="C6" t="n">
-        <v>11.7476896870967</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7476896870967</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E6" t="n">
-        <v>11.7476896870967</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616818</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415667</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752471</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>431.9158668530687</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408228</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200481</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548347</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548347</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548347</v>
+        <v>714.8292042605171</v>
       </c>
       <c r="T6" t="n">
-        <v>439.0550691137148</v>
+        <v>525.4094192440324</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0550691137148</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="V6" t="n">
-        <v>439.0550691137148</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137148</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137148</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="Y6" t="n">
-        <v>308.4065201693365</v>
+        <v>335.9896342275476</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>11.7476896870967</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543243</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510275</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665712</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665712</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665712</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665712</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665712</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665712</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665712</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665712</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.37805236665712</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="D8" t="n">
         <v>15.00204697330559</v>
@@ -4804,52 +4804,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V8" t="n">
-        <v>560.6825636487948</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W8" t="n">
-        <v>371.2627786323101</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X8" t="n">
-        <v>181.8429936158253</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.53661367296056</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="C9" t="n">
-        <v>30.53661367296056</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="D9" t="n">
-        <v>30.53661367296056</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="E9" t="n">
-        <v>30.53661367296056</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="F9" t="n">
-        <v>30.53661367296056</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="G9" t="n">
-        <v>30.53661367296056</v>
+        <v>44.3038124382746</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296056</v>
+        <v>44.3038124382746</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652796</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487948</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="W9" t="n">
-        <v>371.2627786323101</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="X9" t="n">
-        <v>181.8429936158253</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.53661367296056</v>
+        <v>181.8429936158255</v>
       </c>
     </row>
     <row r="10">
@@ -4968,28 +4968,28 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396326</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
         <v>15.00204697330559</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.62132134232</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3308.702226112375</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3055.171749386212</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2724.108862042641</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y11" t="n">
-        <v>1678.62132134232</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>772.5608581015648</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="T13" t="n">
-        <v>772.5608581015648</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U13" t="n">
-        <v>772.5608581015648</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V13" t="n">
-        <v>772.5608581015648</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W13" t="n">
-        <v>772.5608581015648</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308157</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367746</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348091</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372279</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>172.9569801091124</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>172.9569801091124</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>172.9569801091124</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>172.9569801091124</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>172.9569801091124</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757135</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025399</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720659</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5011820977095</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218342</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218342</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>354.6054449393521</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>354.6054449393521</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5515,25 +5515,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3261.229662244248</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3007.699185518085</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V17" t="n">
-        <v>2676.636298174514</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W17" t="n">
-        <v>2676.636298174514</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X17" t="n">
-        <v>2303.170539913434</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.170539913434</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="18">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533.4780323548192</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>364.5418494269123</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
         <v>66.51211643218343</v>
@@ -5706,19 +5706,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>715.126497185059</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>715.126497185059</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W19" t="n">
-        <v>715.126497185059</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X19" t="n">
-        <v>715.126497185059</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.126497185059</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.208022973022</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
@@ -5755,7 +5755,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3282.406477279648</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>3028.876000553484</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.813113209913</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.813113209913</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X20" t="n">
-        <v>2324.347354948834</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y20" t="n">
-        <v>1934.208022973022</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C22" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>87.6824807009811</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218343</v>
@@ -5934,28 +5934,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438286</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379417</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="W22" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X22" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.6824807009811</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1672.191441142817</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C23" t="n">
-        <v>1672.191441142817</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.925742536067</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>928.1374899378222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>517.1515851482147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>102.0791349932112</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>102.0791349932112</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>2788.565186649823</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W23" t="n">
-        <v>2435.796531379709</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X23" t="n">
-        <v>2062.330773118629</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y23" t="n">
-        <v>1672.191441142817</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>739.2385409879453</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="C25" t="n">
-        <v>570.3023580600384</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="D25" t="n">
-        <v>420.1857186477026</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="E25" t="n">
-        <v>272.2726250653095</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="F25" t="n">
-        <v>125.3826775673992</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6180,19 +6180,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V25" t="n">
-        <v>920.887005818185</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W25" t="n">
-        <v>920.887005818185</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X25" t="n">
-        <v>920.887005818185</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.887005818185</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.569348694472</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.569348694472</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D26" t="n">
-        <v>1133.303650087722</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E26" t="n">
-        <v>747.5153974894774</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F26" t="n">
-        <v>336.5294926998699</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.169188758594</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>608.7574741064773</v>
+        <v>188.9106412072202</v>
       </c>
       <c r="C28" t="n">
-        <v>608.7574741064773</v>
+        <v>188.9106412072202</v>
       </c>
       <c r="D28" t="n">
-        <v>458.6408346941415</v>
+        <v>188.9106412072202</v>
       </c>
       <c r="E28" t="n">
-        <v>310.7277411117484</v>
+        <v>188.9106412072202</v>
       </c>
       <c r="F28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812242</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X28" t="n">
-        <v>631.4698357812242</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y28" t="n">
-        <v>608.7574741064773</v>
+        <v>188.9106412072202</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
@@ -6496,19 +6496,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X29" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218343</v>
@@ -6657,16 +6657,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V31" t="n">
-        <v>920.887005818185</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W31" t="n">
-        <v>920.887005818185</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X31" t="n">
-        <v>920.887005818185</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1308.370295943747</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C32" t="n">
-        <v>939.4077790033352</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>581.1420803965848</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>195.3538277983405</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3143.95735677893</v>
+        <v>325.7860413842977</v>
       </c>
       <c r="C34" t="n">
-        <v>2975.021173851023</v>
+        <v>325.7860413842977</v>
       </c>
       <c r="D34" t="n">
-        <v>2824.904534438688</v>
+        <v>175.669401971962</v>
       </c>
       <c r="E34" t="n">
-        <v>2824.904534438688</v>
+        <v>175.669401971962</v>
       </c>
       <c r="F34" t="n">
-        <v>2824.904534438688</v>
+        <v>175.669401971962</v>
       </c>
       <c r="G34" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="X34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="Y34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145375</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1712.341567565139</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1343.379050624727</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>985.1133520179767</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6973,16 +6973,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136266</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W35" t="n">
-        <v>2862.546497866152</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X35" t="n">
-        <v>2489.080739605072</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y35" t="n">
-        <v>2098.941407629261</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
         <v>66.51211643218343</v>
@@ -7125,22 +7125,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>723.6376486118401</v>
+        <v>800.8489669617832</v>
       </c>
       <c r="U37" t="n">
-        <v>723.6376486118401</v>
+        <v>800.8489669617832</v>
       </c>
       <c r="V37" t="n">
-        <v>468.9531604059532</v>
+        <v>800.8489669617832</v>
       </c>
       <c r="W37" t="n">
-        <v>468.9531604059532</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1619.798686923957</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C38" t="n">
-        <v>1250.836169983545</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D38" t="n">
         <v>892.5704713767946</v>
@@ -7165,61 +7165,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3122.772272495085</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3122.772272495085</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3122.772272495085</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2770.00361722497</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2396.53785896389</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2006.398526988078</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218339</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218339</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438281</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V40" t="n">
-        <v>631.7841389438281</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W40" t="n">
-        <v>468.9531604059532</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1190.154071768027</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C41" t="n">
-        <v>1190.154071768027</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D41" t="n">
-        <v>1190.154071768027</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>126.0353997452345</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3024.190544682726</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3024.190544682726</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2693.127657339155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W41" t="n">
-        <v>2340.359002069041</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X41" t="n">
-        <v>1966.893243807961</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.753911832149</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,13 +7505,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.4020639300937</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>213.4020639300937</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>213.4020639300937</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>757.189419010337</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="U43" t="n">
-        <v>468.0865521359806</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V43" t="n">
-        <v>213.4020639300937</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W43" t="n">
-        <v>213.4020639300937</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X43" t="n">
-        <v>213.4020639300937</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.4020639300937</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038042</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.66971909763</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.40402049088</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926356</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030281</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7663,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339055</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102164</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U46" t="n">
-        <v>758.526868257424</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V46" t="n">
-        <v>503.8423800515371</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>217.5613044873861</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
-        <v>207.8369205319743</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E2" t="n">
-        <v>235.0842489835532</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>189.0500967520531</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880636</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354542</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827331</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345808</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>21.88218769163137</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081595</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.848862072211</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>58.92686411476885</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>40.51015860120984</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818781</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776027</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.5665218775348</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270549</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976604</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>258.913070784656</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.0299246530028</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>247.9252960539636</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880636</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V5" t="n">
-        <v>180.9061373814262</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.68706256115865</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>25.86237789960705</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827331</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345808</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>114.8498317302349</v>
       </c>
       <c r="T6" t="n">
-        <v>48.8789978208159</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.34063232236988</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>106.2667394265576</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818781</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776027</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474364</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482526</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270549</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445885</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -23083,13 +23083,13 @@
         <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121491</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y8" t="n">
-        <v>221.0654014799591</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="9">
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.9045589040915</v>
+        <v>29.89581109377217</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846321</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
@@ -23156,19 +23156,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310537</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459971</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715758</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>55.88937963386826</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23232,7 +23232,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>171.5037272356658</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.1834105977928</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.5485151445865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>131.8582917620347</v>
+        <v>107.9970217577785</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>168.0688818921493</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>277.8990491233094</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>60.64539321886858</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7684683149572</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>140.1855723683461</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>149.1044152748381</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23946,10 +23946,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>82.50893465881811</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>14.02380761802706</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>161.1506192533917</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.9321867000805</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.0671476329185</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>84.05187301406116</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>6.365581397508464</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>263.3821350869441</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>107.7439527351647</v>
+        <v>145.0671476329185</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>209.4348714989696</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>143.6045231484438</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>24.24650849564482</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.0994152940953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>117.5495182394675</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>71.74176711264083</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>137.1238099094094</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>279.3227514892159</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>245.2047924200319</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>56.99637738982341</v>
+        <v>57.96009557464744</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>331.8898480104173</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>207.1434510541725</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>24.27208564188771</v>
+        <v>100.7112908083314</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>112.3005183048519</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>336.3649071132048</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>125.3203295840948</v>
+        <v>91.74422531566293</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>235.6797139073998</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>14.70460777061686</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>57.48833833640049</v>
+        <v>161.2670937523057</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>222.7020862222432</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>88.97131881835014</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U46" t="n">
-        <v>125.4753020204603</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769752</v>
+        <v>433263.0758337678</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769754</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
         <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="H2" t="n">
         <v>296136.8796318747</v>
@@ -26337,25 +26337,25 @@
         <v>296136.8796318744</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318743</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="L2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="M2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="N2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="P2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318745</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751305</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074432</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336681</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613402</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904861</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602629</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602629</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26453,13 +26453,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26493,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.097790851</v>
+        <v>-510698.8849732619</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.33718427943</v>
+        <v>80658.01754758344</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587378</v>
+        <v>80658.0175475835</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521928</v>
+        <v>-409962.7469303621</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.485575341</v>
+        <v>168106.9519747608</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324265</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359756</v>
+        <v>56715.45483542804</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572209</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887087</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572209</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568352</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761121</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887084</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761087</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359734</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766338</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695511</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961054</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611126</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339634</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>239.6835023472057</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914129</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332808</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050587</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297036</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864957</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>65.2856027012083</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421835</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674035</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113012</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766338</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695511</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961054</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611126</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339634</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206854</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.187833172042</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>222.6641930179334</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332808</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050587</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297036</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864957</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>65.2856027012083</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674035</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113012</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
         <v>317.0679923244294</v>
@@ -31551,10 +31551,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31597,7 +31597,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
         <v>40.6178210959085</v>
@@ -31606,7 +31606,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
@@ -31615,7 +31615,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
         <v>280.6872536292673</v>
@@ -31624,19 +31624,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987485</v>
@@ -34237,10 +34237,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987485</v>
@@ -34474,10 +34474,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>41.7718465704379</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718123</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>131.125993899784</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040809</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>97.54946842518741</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679324</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592408</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945191</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394256</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813573</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>41.7718465704379</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718123</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>131.125993899784</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040809</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887087</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>80.06794857348896</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679324</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592408</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945191</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394256</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813573</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
@@ -35263,16 +35263,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.233896612727</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.233896612727</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367549</v>
+        <v>450275.6437737593</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.05951393</v>
+        <v>8636206.831769023</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730744</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>52.0489752914763</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>166.7824266983283</v>
       </c>
       <c r="G5" t="n">
-        <v>165.1725371760944</v>
+        <v>166.7824266983283</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663199</v>
+        <v>103.854681799938</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>127.894035216703</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>34.92041296071469</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>166.7824266983283</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>166.7824266983283</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>166.7824266983283</v>
       </c>
     </row>
     <row r="7">
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>36.43383855780555</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>88.09081815943109</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>29.00874781031932</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>186.1649406925477</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="T10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>16.73455954182738</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>141.5291223298325</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>81.77200357366338</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>161.0476963161315</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>48.02794782510933</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>71.3419195941036</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247742</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>105.3804150401596</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.70975721459969</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>88.01624809068136</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.1335233812154</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>238.1138357058009</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>5.979727346322102</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>274.8735849357809</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>46.79891397838848</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>202.1599651915517</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>327.567758718186</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>106.3489655915249</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>173.2989701645109</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>46.27182779876098</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2687,7 +2687,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1745395272864</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>237.1335233812154</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>190.192112940037</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.7823419124758</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>88.58584547962775</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.2268612046877</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>124.5263082584371</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.0657126843808</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>58.9280504799215</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>120.6088074159623</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>118.8376584678378</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>160.0591558029325</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>215.1504225817599</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>49.87303154284881</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>194.7787730209281</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>397.0468136718354</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>58.92805047992061</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>238.7809396517848</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>195.0465954186455</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.03383196921586</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.95866062610972</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.8416170062752</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="C2" t="n">
-        <v>204.4218319897904</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>142.3962386314749</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>53.10181779182994</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>523.2361246735302</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>439.0550691137144</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>290.7256538725946</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>290.7256538725946</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>51.36582106616814</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>286.538206975247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>431.9158668530685</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>550.1875401335672</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>586.7735145200476</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>509.3106579270987</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>456.735935410456</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487949</v>
+        <v>456.735935410456</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487949</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487949</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323101</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158253</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>14.12595803543239</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510268</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665702</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="C5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="D5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="E5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="F5" t="n">
-        <v>181.8429936158252</v>
+        <v>311.3438087878535</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>142.8767111127744</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>142.8767111127744</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>64.08111238184347</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>163.9284927306053</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>306.6973793432476</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>456.3902241803911</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>584.4056715233285</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>659.1628932295214</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933133</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652795</v>
+        <v>584.714625452769</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652795</v>
+        <v>584.714625452769</v>
       </c>
       <c r="T5" t="n">
-        <v>560.6825636487947</v>
+        <v>584.714625452769</v>
       </c>
       <c r="U5" t="n">
-        <v>371.26277863231</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="V5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="W5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="X5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.8429936158252</v>
+        <v>479.8109064629326</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335.9896342275476</v>
+        <v>161.7284137680759</v>
       </c>
       <c r="C6" t="n">
-        <v>161.5366049464206</v>
+        <v>161.7284137680759</v>
       </c>
       <c r="D6" t="n">
-        <v>161.5366049464206</v>
+        <v>161.7284137680759</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>38.75236103068193</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>146.9169927356255</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>292.4968843114797</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>456.3384873466069</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476347</v>
+        <v>584.0017498697404</v>
       </c>
       <c r="P6" t="n">
-        <v>739.598998701706</v>
+        <v>667.1297067933133</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933133</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652795</v>
+        <v>667.1297067933133</v>
       </c>
       <c r="S6" t="n">
-        <v>714.8292042605171</v>
+        <v>667.1297067933133</v>
       </c>
       <c r="T6" t="n">
-        <v>525.4094192440324</v>
+        <v>667.1297067933133</v>
       </c>
       <c r="U6" t="n">
-        <v>335.9896342275476</v>
+        <v>667.1297067933133</v>
       </c>
       <c r="V6" t="n">
-        <v>335.9896342275476</v>
+        <v>498.6626091182342</v>
       </c>
       <c r="W6" t="n">
-        <v>335.9896342275476</v>
+        <v>330.1955114431551</v>
       </c>
       <c r="X6" t="n">
-        <v>335.9896342275476</v>
+        <v>330.1955114431551</v>
       </c>
       <c r="Y6" t="n">
-        <v>335.9896342275476</v>
+        <v>161.7284137680759</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>20.64084305584017</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>31.59410626612423</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.8429936158252</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="C8" t="n">
-        <v>181.8429936158252</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="V8" t="n">
-        <v>560.6825636487947</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="W8" t="n">
-        <v>560.6825636487947</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="X8" t="n">
-        <v>371.26277863231</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.8429936158252</v>
+        <v>482.8222414097415</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C9" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D9" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E9" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G9" t="n">
-        <v>44.3038124382746</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H9" t="n">
-        <v>44.3038124382746</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487949</v>
+        <v>562.0569540263438</v>
       </c>
       <c r="V9" t="n">
-        <v>371.2627786323102</v>
+        <v>372.6371690098587</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158255</v>
+        <v>372.6371690098587</v>
       </c>
       <c r="X9" t="n">
-        <v>181.8429936158255</v>
+        <v>183.2173839933737</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.8429936158255</v>
+        <v>183.2173839933737</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1594.601034732593</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C11" t="n">
-        <v>1225.638517792182</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D11" t="n">
-        <v>867.3728191854311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3308.702226112375</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3055.171749386212</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2724.108862042641</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W11" t="n">
-        <v>2371.340206772526</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X11" t="n">
-        <v>2371.340206772526</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.200874796715</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="12">
@@ -5105,22 +5105,22 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5208,43 +5208,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>838.2890224104441</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>838.2890224104441</v>
+        <v>758.2125650948199</v>
       </c>
       <c r="U13" t="n">
-        <v>549.1861555360877</v>
+        <v>469.1096982204634</v>
       </c>
       <c r="V13" t="n">
-        <v>294.5016673302007</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="W13" t="n">
-        <v>294.5016673302007</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.942324366272</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.942324366272</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>157.0220938039362</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>157.0220938039362</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2352.681496406205</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2352.681496406205</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>1962.542164430393</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172.9569801091124</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="C16" t="n">
-        <v>172.9569801091124</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="D16" t="n">
-        <v>172.9569801091124</v>
+        <v>259.5865809384146</v>
       </c>
       <c r="E16" t="n">
-        <v>172.9569801091124</v>
+        <v>111.6734873560215</v>
       </c>
       <c r="F16" t="n">
-        <v>172.9569801091124</v>
+        <v>111.6734873560215</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>111.6734873560215</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5445,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>609.2899331452389</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U16" t="n">
-        <v>609.2899331452389</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V16" t="n">
-        <v>354.6054449393521</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W16" t="n">
-        <v>354.6054449393521</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X16" t="n">
-        <v>354.6054449393521</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y16" t="n">
-        <v>354.6054449393521</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1278.358723975039</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796418</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.487375535338</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y17" t="n">
-        <v>1664.958564039161</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C19" t="n">
         <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V19" t="n">
-        <v>680.3679798527295</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W19" t="n">
-        <v>680.3679798527295</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X19" t="n">
-        <v>680.3679798527295</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.3679798527295</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>1094.728606167273</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>683.7427013776655</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2866.09759726723</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2513.328941997116</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X20" t="n">
-        <v>2466.057311715915</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y20" t="n">
-        <v>2075.917979740103</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="21">
@@ -5828,10 +5828,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X22" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1647.321240915451</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C23" t="n">
-        <v>1278.358723975039</v>
+        <v>1053.23793938793</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>694.9722407811798</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.483610522581</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2424.060412955384</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>2033.921080979572</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.6824807009811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>87.6824807009811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>87.6824807009811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>87.6824807009811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>87.6824807009811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379417</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W25" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X25" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.6824807009811</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1133.32083113111</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C26" t="n">
-        <v>764.3583141906979</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="D26" t="n">
-        <v>406.0926155839475</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
         <v>406.0926155839475</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6265,13 +6265,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.9106412072202</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C28" t="n">
-        <v>188.9106412072202</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D28" t="n">
-        <v>188.9106412072202</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>188.9106412072202</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>699.1203903877109</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="W28" t="n">
-        <v>409.7032203507503</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="X28" t="n">
-        <v>409.7032203507503</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.9106412072202</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1517.887535471216</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C29" t="n">
-        <v>1517.887535471216</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>517.4719255574712</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>348.5357426295643</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>666.2025176122982</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>376.7853475753375</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X31" t="n">
-        <v>287.3046955757135</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218343</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.511388127729</v>
+        <v>2291.674678112794</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.548871187317</v>
+        <v>1922.712161172383</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1564.446462565632</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>1178.658209967388</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>767.6723051777806</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>352.599855022777</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923659</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2535.034709923659</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X32" t="n">
-        <v>2409.250560167662</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.11122819185</v>
+        <v>2678.274518176916</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>325.7860413842977</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C34" t="n">
-        <v>325.7860413842977</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>175.669401971962</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E34" t="n">
-        <v>175.669401971962</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>175.669401971962</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X34" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y34" t="n">
-        <v>507.4345062145375</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6973,16 +6973,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.4317969248226</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218343</v>
@@ -7125,22 +7125,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>800.8489669617832</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>800.8489669617832</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>800.8489669617832</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W37" t="n">
-        <v>511.4317969248226</v>
+        <v>759.2110908657279</v>
       </c>
       <c r="X37" t="n">
-        <v>511.4317969248226</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y37" t="n">
-        <v>511.4317969248226</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.532988317206</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C38" t="n">
-        <v>892.5704713767946</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D38" t="n">
-        <v>892.5704713767946</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>736.8185791558171</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>325.8326743662096</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y38" t="n">
-        <v>1648.132828381328</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.4548862703364</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7341,43 +7341,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>729.2011216450112</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V40" t="n">
-        <v>729.2011216450112</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W40" t="n">
-        <v>532.4548862703364</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X40" t="n">
-        <v>532.4548862703364</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y40" t="n">
-        <v>532.4548862703364</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2065.110222835252</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.14770589484</v>
+        <v>1192.9382557295</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.88200728809</v>
+        <v>1192.9382557295</v>
       </c>
       <c r="E41" t="n">
-        <v>952.0937546898456</v>
+        <v>807.150003131256</v>
       </c>
       <c r="F41" t="n">
-        <v>541.1078499002381</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0353997452345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W41" t="n">
-        <v>3215.315153136266</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.849394875186</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y41" t="n">
-        <v>2451.710062899374</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7496,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>862.0164446829692</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>862.0164446829692</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V43" t="n">
-        <v>862.0164446829692</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W43" t="n">
-        <v>862.0164446829692</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X43" t="n">
-        <v>862.0164446829692</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1934.208022973022</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7684,16 +7684,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>3084.412953274035</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W44" t="n">
-        <v>3084.412953274035</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X44" t="n">
-        <v>2710.947195012955</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>2320.807863037144</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218343</v>
@@ -7836,22 +7836,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>899.7166415493873</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>610.6137746750309</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V46" t="n">
-        <v>355.929286469144</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W46" t="n">
-        <v>66.51211643218343</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218343</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218343</v>
+        <v>410.0175235133546</v>
       </c>
     </row>
   </sheetData>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.5613044873861</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046876</v>
+        <v>218.426770682299</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>189.0500967520533</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>15.26359063142556</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827357</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>99.17527585508955</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681299</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>79.02279728521572</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071673</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120984</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,37 +22743,37 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>265.1089392838263</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>240.0936190433831</v>
       </c>
       <c r="G5" t="n">
-        <v>247.9252960539636</v>
+        <v>246.3871906880663</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988691</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871046</v>
+        <v>147.3203214975992</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>29.75104523869796</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>114.8498317302349</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681384</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>66.01816045109695</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>84.91255646259128</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>38.90026907897604</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>249.8329992938961</v>
       </c>
       <c r="V7" t="n">
-        <v>199.9216970693936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23026,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>189.5105044445885</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>293.8395519128307</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -23080,16 +23080,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>140.226671303815</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>29.89581109377217</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>39.69882771754325</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23196,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410614</v>
       </c>
       <c r="T10" t="n">
-        <v>171.5037272356657</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23263,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.1834105977928</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>228.2019783486365</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>107.9970217577785</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>58.50125296003773</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>246.5798165622111</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>277.8990491233094</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>60.64539321886858</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>100.0452576997211</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23712,10 +23712,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>149.1044152748381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>14.02380761802706</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>219.729928042715</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>136.0481407176726</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>322.9321867000805</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>84.05187301406116</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4966259053222</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>54.3626113540758</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>263.3821350869441</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>158.8733195558277</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>145.0671476329185</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.4348714989696</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>308.411213821922</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>24.24650849564482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>120.5854304825589</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>117.5495182394675</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>216.6839328016745</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>14.83313110573653</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>137.1238099094094</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>11.38090318263278</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>245.2047924200319</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.96009557464744</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="35">
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>235.679713907399</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25213,10 +25213,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>207.1434510541725</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>100.7112908083314</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>126.4638425336585</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>195.7713030716935</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>336.3649071132048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>91.74422531566293</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259851</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9.829232069876014</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>235.6797139073998</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>161.2670937523057</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>197.6259927259851</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25924,10 +25924,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>88.97131881835014</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>154.1943732987675</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.212989129412</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26076,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>198.5902886500595</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337678</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337675</v>
+        <v>417888.8482179074</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337675</v>
+        <v>433263.0758337678</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754295</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963042</v>
       </c>
       <c r="E2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="F2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="F2" t="n">
-        <v>296136.8796318747</v>
-      </c>
       <c r="G2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="J2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="K2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="J2" t="n">
-        <v>296136.8796318743</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="M2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="N2" t="n">
         <v>296136.8796318745</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="M2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="N2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318744</v>
       </c>
       <c r="P2" t="n">
         <v>296136.8796318745</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679115</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136623</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004534</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>122.1898065383437</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="H4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>53719.11977902089</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,22 +26484,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732619</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758344</v>
+        <v>64626.86678985722</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.0175475835</v>
+        <v>69896.83250792364</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303621</v>
+        <v>-406296.1510900091</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747608</v>
+        <v>182417.0860375241</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033055</v>
+        <v>215707.5254415214</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033055</v>
+        <v>215588.5853176535</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542804</v>
+        <v>60382.0506757808</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983283</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871367</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799188</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799188</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799188</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>170.9299370976438</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>163.5078701812435</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31691,31 +31691,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32022,7 +32022,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
         <v>99.83230779806951</v>
@@ -32256,7 +32256,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781681</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563569</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>36.95552968331355</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>25.66643120688451</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037185</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
